--- a/population_log.xlsx
+++ b/population_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,463 +441,274 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>Room1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>count</t>
+          <t>Cafeteria</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Gym</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-09 00:42:31</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Room1</t>
-        </is>
+          <t>2025-06-09 09:22:17</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>118</v>
       </c>
       <c r="C2" t="n">
-        <v>123</v>
+        <v>200</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-09 00:42:31</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Gym</t>
-        </is>
+          <t>2025-06-09 09:22:18</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>118</v>
       </c>
       <c r="C3" t="n">
+        <v>200</v>
+      </c>
+      <c r="D3" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-09 00:42:31</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cafeteria</t>
-        </is>
+          <t>2025-06-09 09:22:28</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>118</v>
       </c>
       <c r="C4" t="n">
         <v>200</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-09 00:42:33</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Room1</t>
-        </is>
+          <t>2025-06-09 09:22:29</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>118</v>
       </c>
       <c r="C5" t="n">
-        <v>123</v>
+        <v>200</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-06-09 00:42:33</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Gym</t>
-        </is>
+          <t>2025-06-09 09:22:38</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>120</v>
       </c>
       <c r="C6" t="n">
+        <v>200</v>
+      </c>
+      <c r="D6" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-06-09 00:42:33</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cafeteria</t>
-        </is>
+          <t>2025-06-09 09:22:39</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>121</v>
       </c>
       <c r="C7" t="n">
         <v>200</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-06-09 00:42:42</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Room1</t>
-        </is>
+          <t>2025-06-09 09:22:48</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>129</v>
       </c>
       <c r="C8" t="n">
-        <v>123</v>
+        <v>200</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-06-09 00:42:42</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Gym</t>
-        </is>
+          <t>2025-06-09 09:22:49</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>129</v>
       </c>
       <c r="C9" t="n">
+        <v>200</v>
+      </c>
+      <c r="D9" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-06-09 00:42:42</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cafeteria</t>
-        </is>
+          <t>2025-06-09 09:22:58</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>142</v>
       </c>
       <c r="C10" t="n">
         <v>200</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-06-09 00:42:43</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Room1</t>
-        </is>
+          <t>2025-06-09 09:22:59</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>142</v>
       </c>
       <c r="C11" t="n">
-        <v>123</v>
+        <v>200</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-06-09 00:42:43</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Gym</t>
-        </is>
+          <t>2025-06-09 09:25:47</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>142</v>
       </c>
       <c r="C12" t="n">
+        <v>200</v>
+      </c>
+      <c r="D12" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-06-09 00:42:43</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Cafeteria</t>
-        </is>
+          <t>2025-06-09 09:25:58</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>154</v>
       </c>
       <c r="C13" t="n">
         <v>200</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-06-09 00:42:52</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Room1</t>
-        </is>
+          <t>2025-06-09 09:26:08</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>157</v>
       </c>
       <c r="C14" t="n">
-        <v>123</v>
+        <v>200</v>
+      </c>
+      <c r="D14" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-09 00:42:52</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Gym</t>
-        </is>
+          <t>2025-06-09 09:26:18</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>158</v>
       </c>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>200</v>
+      </c>
+      <c r="D15" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-06-09 00:42:52</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Cafeteria</t>
-        </is>
+          <t>2025-06-09 09:26:28</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>166</v>
       </c>
       <c r="C16" t="n">
         <v>200</v>
+      </c>
+      <c r="D16" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-06-09 00:42:53</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Room1</t>
-        </is>
+          <t>2025-06-09 09:26:38</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>166</v>
       </c>
       <c r="C17" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-06-09 00:42:53</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Gym</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-06-09 00:42:53</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Cafeteria</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-06-09 00:43:02</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Room1</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-06-09 00:43:02</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Gym</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-06-09 00:43:02</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Cafeteria</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-06-09 00:43:03</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Room1</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-06-09 00:43:03</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Gym</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-06-09 00:43:03</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Cafeteria</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-06-09 00:43:12</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Room1</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-06-09 00:43:12</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Gym</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-06-09 00:43:12</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Cafeteria</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-06-09 00:43:14</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Room1</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-06-09 00:43:14</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Gym</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-06-09 00:43:14</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Cafeteria</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>200</v>
+        <v>200</v>
+      </c>
+      <c r="D17" t="n">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/population_log.xlsx
+++ b/population_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -711,6 +711,38 @@
         <v>43</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-06-09 17:27:15</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>118</v>
+      </c>
+      <c r="C18" t="n">
+        <v>200</v>
+      </c>
+      <c r="D18" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-06-09 17:37:16</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>118</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/population_log.xlsx
+++ b/population_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -743,6 +743,38 @@
         <v>43</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-06-13 07:12:09</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>90</v>
+      </c>
+      <c r="C20" t="n">
+        <v>200</v>
+      </c>
+      <c r="D20" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-06-13 07:22:09</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>90</v>
+      </c>
+      <c r="C21" t="n">
+        <v>200</v>
+      </c>
+      <c r="D21" t="n">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/population_log.xlsx
+++ b/population_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,6 +775,150 @@
         <v>43</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-06-16 16:13:08</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>90</v>
+      </c>
+      <c r="C22" t="n">
+        <v>200</v>
+      </c>
+      <c r="D22" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-06-16 16:23:10</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>90</v>
+      </c>
+      <c r="C23" t="n">
+        <v>200</v>
+      </c>
+      <c r="D23" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-06-16 16:49:44</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>60</v>
+      </c>
+      <c r="C24" t="n">
+        <v>130</v>
+      </c>
+      <c r="D24" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-06-16 16:59:46</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>60</v>
+      </c>
+      <c r="C25" t="n">
+        <v>130</v>
+      </c>
+      <c r="D25" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-06-16 17:11:22</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>60</v>
+      </c>
+      <c r="C26" t="n">
+        <v>130</v>
+      </c>
+      <c r="D26" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-06-16 17:21:22</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>60</v>
+      </c>
+      <c r="C27" t="n">
+        <v>130</v>
+      </c>
+      <c r="D27" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-06-16 17:31:22</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>60</v>
+      </c>
+      <c r="C28" t="n">
+        <v>130</v>
+      </c>
+      <c r="D28" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-06-16 17:41:22</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>60</v>
+      </c>
+      <c r="C29" t="n">
+        <v>130</v>
+      </c>
+      <c r="D29" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-06-16 17:56:14</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>60</v>
+      </c>
+      <c r="C30" t="n">
+        <v>130</v>
+      </c>
+      <c r="D30" t="n">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/population_log.xlsx
+++ b/population_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,6 +919,54 @@
         <v>43</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-06-16 18:54:38</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>60</v>
+      </c>
+      <c r="C31" t="n">
+        <v>130</v>
+      </c>
+      <c r="D31" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-06-17 16:17:21</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>60</v>
+      </c>
+      <c r="C32" t="n">
+        <v>130</v>
+      </c>
+      <c r="D32" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-06-17 16:27:22</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>60</v>
+      </c>
+      <c r="C33" t="n">
+        <v>130</v>
+      </c>
+      <c r="D33" t="n">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/population_log.xlsx
+++ b/population_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,6 +967,22 @@
         <v>43</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-06-18 16:13:19</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>60</v>
+      </c>
+      <c r="C34" t="n">
+        <v>130</v>
+      </c>
+      <c r="D34" t="n">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/population_log.xlsx
+++ b/population_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\25-1\IoT\LAB\IoT_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AABAFE-8784-484F-BBBA-1C7928123C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C9C841-876F-4963-9AF1-3DB18D55CC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -107,10 +107,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78:I155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
